--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4688,7 +4688,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -5048,7 +5048,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5290,7 +5290,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -6140,7 +6140,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6500,7 +6500,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6742,7 +6742,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7592,7 +7592,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7952,7 +7952,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -8194,7 +8194,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -9044,7 +9044,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9404,7 +9404,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9646,7 +9646,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -10496,7 +10496,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10856,7 +10856,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -11098,7 +11098,7 @@
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
@@ -11948,7 +11948,7 @@
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -12308,7 +12308,7 @@
         <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12550,7 +12550,7 @@
         <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8068,7 +8068,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9520,7 +9520,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12424,7 +12424,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1199,7 +1199,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>https://fhir.loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>
@@ -4268,7 +4268,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-calcium-in-serum-or-plasma-mole-concentration</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-calcium-in-serum-or-plasma-mole-concentration</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-blood-calcium-level</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-blood-calcium-level</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1594,7 +1594,7 @@
     <t>umol/L | mmol/L</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-molar-concentration-units</t>
+    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-molar-concentration-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2475,7 +2475,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.26953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-calcium-in-serum-or-plasma-mole-concentration</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-calcium-in-serum-or-plasma-mole-concentration</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-blood-calcium-level</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-blood-calcium-level</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1594,7 +1594,7 @@
     <t>umol/L | mmol/L</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-molar-concentration-units</t>
+    <t>http://fhir.org/de/ValueSet/vs-molar-concentration-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2475,7 +2475,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.26953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-calcium-in-serum-or-plasma-mole-concentration</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-calcium-in-serum-or-plasma-mole-concentration</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-blood-calcium-level</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-blood-calcium-level</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1594,7 +1594,7 @@
     <t>umol/L | mmol/L</t>
   </si>
   <si>
-    <t>http://fhir.org/de/ValueSet/vs-molar-concentration-units</t>
+    <t>http://hl7.org/de/ValueSet/vs-molar-concentration-units</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2475,7 +2475,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.50390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.1796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$106</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="636">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-blood-calcium-level</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-umls-calcium-level</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -632,7 +632,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>6</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -676,13 +676,13 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>Observation.category:Laboratory.id</t>
+    <t>Observation.category:ElectrolyteMeasurement</t>
+  </si>
+  <si>
+    <t>ElectrolyteMeasurement</t>
+  </si>
+  <si>
+    <t>Observation.category:ElectrolyteMeasurement.id</t>
   </si>
   <si>
     <t>Observation.category.id</t>
@@ -701,7 +701,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.extension</t>
+    <t>Observation.category:ElectrolyteMeasurement.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -713,7 +713,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding</t>
+    <t>Observation.category:ElectrolyteMeasurement.coding</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -744,19 +744,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.id</t>
+    <t>Observation.category:ElectrolyteMeasurement.coding.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.extension</t>
+    <t>Observation.category:ElectrolyteMeasurement.coding.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.system</t>
+    <t>Observation.category:ElectrolyteMeasurement.coding.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
+    <t>http://terminology.hl7.org/CodeSystem/umls</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -786,7 +786,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.version</t>
+    <t>Observation.category:ElectrolyteMeasurement.coding.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -810,7 +810,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.code</t>
+    <t>Observation.category:ElectrolyteMeasurement.coding.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -828,7 +828,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>laboratory</t>
+    <t>C0201992</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -840,7 +840,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.display</t>
+    <t>Observation.category:ElectrolyteMeasurement.coding.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -864,7 +864,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.coding.userSelected</t>
+    <t>Observation.category:ElectrolyteMeasurement.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -895,7 +895,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Observation.category:Laboratory.text</t>
+    <t>Observation.category:ElectrolyteMeasurement.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>
@@ -922,217 +922,88 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>Observation.category:ClinicalMeasurement</t>
-  </si>
-  <si>
-    <t>ClinicalMeasurement</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.id</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.system</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.code</t>
-  </si>
-  <si>
-    <t>CMO_0000000</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:ClinicalMeasurement.text</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement</t>
-  </si>
-  <si>
-    <t>BloodMeasurement</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.code</t>
-  </si>
-  <si>
-    <t>CMO_0000035</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodMeasurement.text</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodChemistryMeasurement</t>
-  </si>
-  <si>
-    <t>BloodChemistryMeasurement</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodChemistryMeasurement.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodChemistryMeasurement.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodChemistryMeasurement.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodChemistryMeasurement.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodChemistryMeasurement.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodChemistryMeasurement.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodChemistryMeasurement.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodChemistryMeasurement.coding.code</t>
-  </si>
-  <si>
-    <t>CMO_0000023</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodChemistryMeasurement.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodChemistryMeasurement.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodChemistryMeasurement.text</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodElectrolyteMeasurement</t>
-  </si>
-  <si>
-    <t>BloodElectrolyteMeasurement</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodElectrolyteMeasurement.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodElectrolyteMeasurement.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodElectrolyteMeasurement.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodElectrolyteMeasurement.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodElectrolyteMeasurement.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodElectrolyteMeasurement.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodElectrolyteMeasurement.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodElectrolyteMeasurement.coding.code</t>
-  </si>
-  <si>
-    <t>CMO_0000063</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodElectrolyteMeasurement.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodElectrolyteMeasurement.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodElectrolyteMeasurement.text</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCalciumLevel</t>
-  </si>
-  <si>
-    <t>BloodCalciumLevel</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCalciumLevel.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCalciumLevel.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCalciumLevel.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCalciumLevel.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCalciumLevel.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCalciumLevel.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCalciumLevel.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCalciumLevel.coding.code</t>
-  </si>
-  <si>
-    <t>CMO_0000502</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCalciumLevel.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCalciumLevel.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:BloodCalciumLevel.text</t>
+    <t>Observation.category:Calcium</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Observation.category:Calcium.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Calcium.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Calcium.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:Calcium.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Calcium.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Calcium.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:Calcium.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:Calcium.coding.code</t>
+  </si>
+  <si>
+    <t>C0364129</t>
+  </si>
+  <si>
+    <t>Observation.category:Calcium.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:Calcium.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:Calcium.text</t>
+  </si>
+  <si>
+    <t>Observation.category:CalciumIonized</t>
+  </si>
+  <si>
+    <t>CalciumIonized</t>
+  </si>
+  <si>
+    <t>Observation.category:CalciumIonized.id</t>
+  </si>
+  <si>
+    <t>Observation.category:CalciumIonized.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:CalciumIonized.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:CalciumIonized.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:CalciumIonized.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:CalciumIonized.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:CalciumIonized.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:CalciumIonized.coding.code</t>
+  </si>
+  <si>
+    <t>C0364127</t>
+  </si>
+  <si>
+    <t>Observation.category:CalciumIonized.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:CalciumIonized.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:CalciumIonized.text</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -2441,7 +2312,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP142"/>
+  <dimension ref="A1:AP106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2450,9 +2321,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.87890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.46875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.2890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -4325,7 +4196,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -5777,7 +5648,7 @@
         <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>93</v>
@@ -6528,7 +6399,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6605,7 +6476,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>248</v>
@@ -6725,7 +6596,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>256</v>
@@ -6770,7 +6641,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6847,7 +6718,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>266</v>
@@ -6969,7 +6840,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>274</v>
@@ -7091,7 +6962,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>284</v>
@@ -7213,13 +7084,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7229,7 +7100,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>93</v>
@@ -7337,7 +7208,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>214</v>
@@ -7455,7 +7326,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>220</v>
@@ -7575,7 +7446,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>224</v>
@@ -7697,7 +7568,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>234</v>
@@ -7815,7 +7686,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>236</v>
@@ -7935,7 +7806,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>238</v>
@@ -7980,7 +7851,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -8057,7 +7928,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>248</v>
@@ -8177,7 +8048,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>256</v>
@@ -8222,7 +8093,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8299,7 +8170,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>266</v>
@@ -8421,7 +8292,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>274</v>
@@ -8543,7 +8414,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>284</v>
@@ -8665,16 +8536,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8690,22 +8559,22 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>199</v>
+        <v>322</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>200</v>
+        <v>323</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8730,13 +8599,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>119</v>
+        <v>326</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8754,13 +8623,13 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>104</v>
@@ -8769,30 +8638,30 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>208</v>
+        <v>331</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>210</v>
+        <v>333</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8907,10 +8776,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>220</v>
+        <v>336</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9027,10 +8896,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9044,7 +8913,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9149,10 +9018,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9267,10 +9136,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>236</v>
+        <v>339</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9387,10 +9256,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>238</v>
+        <v>340</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9432,7 +9301,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9509,10 +9378,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>248</v>
+        <v>342</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9520,7 +9389,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -9629,10 +9498,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9674,7 +9543,7 @@
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9751,10 +9620,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9873,10 +9742,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>274</v>
+        <v>346</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9995,10 +9864,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>284</v>
+        <v>347</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10006,13 +9875,13 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
@@ -10043,7 +9912,7 @@
         <v>82</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>82</v>
@@ -10117,47 +9986,45 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K64" t="s" s="2">
-        <v>198</v>
+        <v>350</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>199</v>
+        <v>351</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>200</v>
+        <v>352</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>201</v>
+        <v>353</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>202</v>
+        <v>354</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10182,13 +10049,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10206,34 +10073,34 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>196</v>
+        <v>349</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>208</v>
+        <v>356</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>209</v>
+        <v>357</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10241,10 +10108,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>214</v>
+        <v>359</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10255,7 +10122,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10264,18 +10131,20 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>215</v>
+        <v>360</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>216</v>
+        <v>361</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10324,19 +10193,19 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>218</v>
+        <v>359</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10345,13 +10214,13 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>113</v>
+        <v>364</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>82</v>
@@ -10359,21 +10228,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>220</v>
+        <v>365</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>139</v>
+        <v>366</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10382,21 +10251,23 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>140</v>
+        <v>367</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>141</v>
+        <v>368</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>369</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10432,46 +10303,46 @@
         <v>82</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>222</v>
+        <v>365</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>106</v>
+        <v>374</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>82</v>
+        <v>375</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>82</v>
@@ -10479,21 +10350,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>224</v>
+        <v>376</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10505,19 +10376,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>225</v>
+        <v>378</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>226</v>
+        <v>379</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>227</v>
+        <v>380</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>228</v>
+        <v>381</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>229</v>
+        <v>382</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10566,13 +10437,13 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>230</v>
+        <v>376</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>104</v>
@@ -10581,19 +10452,19 @@
         <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>231</v>
+        <v>384</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>232</v>
+        <v>385</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>82</v>
@@ -10601,10 +10472,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>234</v>
+        <v>387</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10624,18 +10495,20 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>215</v>
+        <v>388</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>216</v>
+        <v>389</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10684,7 +10557,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>218</v>
+        <v>387</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10693,10 +10566,10 @@
         <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10705,13 +10578,13 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>82</v>
@@ -10719,14 +10592,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>236</v>
+        <v>395</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10742,21 +10615,23 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>140</v>
+        <v>396</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>141</v>
+        <v>397</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>398</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10792,19 +10667,19 @@
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>222</v>
+        <v>395</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10816,22 +10691,22 @@
         <v>104</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>106</v>
+        <v>402</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>82</v>
@@ -10839,10 +10714,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>238</v>
+        <v>404</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10850,7 +10725,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>92</v>
@@ -10865,26 +10740,26 @@
         <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>239</v>
+        <v>406</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>240</v>
+        <v>407</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>241</v>
+        <v>408</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>242</v>
+        <v>409</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10914,19 +10789,17 @@
         <v>82</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="AC70" s="2"/>
       <c r="AD70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>404</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10935,7 +10808,7 @@
         <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>105</v>
@@ -10944,35 +10817,37 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>245</v>
+        <v>413</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>246</v>
+        <v>414</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>343</v>
+        <v>416</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -10987,18 +10862,20 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>215</v>
+        <v>418</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -11046,7 +10923,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>252</v>
+        <v>404</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11055,36 +10932,36 @@
         <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>253</v>
+        <v>413</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>254</v>
+        <v>414</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>344</v>
+        <v>419</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>256</v>
+        <v>420</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11092,7 +10969,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>92</v>
@@ -11104,29 +10981,25 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11168,7 +11041,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11177,10 +11050,10 @@
         <v>92</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11189,10 +11062,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11203,21 +11076,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>346</v>
+        <v>421</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>266</v>
+        <v>422</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11226,23 +11099,21 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -11278,31 +11149,31 @@
         <v>82</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11311,10 +11182,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11325,10 +11196,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>274</v>
+        <v>424</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11336,13 +11207,13 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>82</v>
@@ -11351,19 +11222,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>275</v>
+        <v>425</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>276</v>
+        <v>426</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>277</v>
+        <v>427</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>278</v>
+        <v>428</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>279</v>
+        <v>429</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11412,7 +11283,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11433,10 +11304,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>281</v>
+        <v>431</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>282</v>
+        <v>432</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11447,10 +11318,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>284</v>
+        <v>434</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11467,30 +11338,32 @@
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>285</v>
+        <v>435</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>286</v>
+        <v>436</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>288</v>
+        <v>437</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="R75" t="s" s="2">
         <v>82</v>
       </c>
@@ -11510,13 +11383,13 @@
         <v>82</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>82</v>
+        <v>439</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>82</v>
@@ -11534,7 +11407,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>289</v>
+        <v>441</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11555,10 +11428,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>290</v>
+        <v>442</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>291</v>
+        <v>443</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11569,14 +11442,12 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>349</v>
+        <v>444</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11594,22 +11465,22 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>199</v>
+        <v>446</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>200</v>
+        <v>447</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>202</v>
+        <v>448</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11634,13 +11505,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11658,13 +11529,13 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>196</v>
+        <v>449</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>104</v>
@@ -11679,13 +11550,13 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>208</v>
+        <v>450</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>209</v>
+        <v>451</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11693,10 +11564,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>351</v>
+        <v>452</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>214</v>
+        <v>453</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11704,37 +11575,41 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>216</v>
+        <v>454</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>82</v>
@@ -11776,7 +11651,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>218</v>
+        <v>459</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11785,10 +11660,10 @@
         <v>92</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>82</v>
+        <v>460</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11797,10 +11672,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>113</v>
+        <v>461</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11811,44 +11686,46 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>352</v>
+        <v>462</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>220</v>
+        <v>463</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>141</v>
+        <v>464</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>221</v>
+        <v>464</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11872,43 +11749,43 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>222</v>
+        <v>469</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
@@ -11917,10 +11794,10 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>106</v>
+        <v>470</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11931,10 +11808,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>353</v>
+        <v>471</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>224</v>
+        <v>471</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11942,10 +11819,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11954,22 +11831,22 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>226</v>
+        <v>472</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>227</v>
+        <v>473</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>228</v>
+        <v>474</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>229</v>
+        <v>475</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11994,13 +11871,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -12018,16 +11895,16 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>230</v>
+        <v>471</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>104</v>
+        <v>479</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>105</v>
@@ -12039,10 +11916,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>232</v>
+        <v>480</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -12053,21 +11930,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>354</v>
+        <v>481</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>234</v>
+        <v>481</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -12079,16 +11956,20 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>216</v>
+        <v>483</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -12112,13 +11993,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12136,49 +12017,49 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>218</v>
+        <v>481</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>82</v>
+        <v>490</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>113</v>
+        <v>491</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>355</v>
+        <v>493</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>236</v>
+        <v>493</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12197,18 +12078,20 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>140</v>
+        <v>494</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>141</v>
+        <v>495</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>221</v>
+        <v>496</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12244,19 +12127,19 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>493</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12268,7 +12151,7 @@
         <v>104</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12277,10 +12160,10 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>106</v>
+        <v>500</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12291,10 +12174,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>356</v>
+        <v>501</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>238</v>
+        <v>501</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12302,7 +12185,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>92</v>
@@ -12314,29 +12197,27 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>239</v>
+        <v>502</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>240</v>
+        <v>503</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12354,13 +12235,13 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12378,7 +12259,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>244</v>
+        <v>501</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12396,27 +12277,27 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>82</v>
+        <v>507</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>245</v>
+        <v>508</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>246</v>
+        <v>509</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>357</v>
+        <v>511</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>248</v>
+        <v>511</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12424,7 +12305,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>
@@ -12436,21 +12317,23 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>249</v>
+        <v>512</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>250</v>
+        <v>513</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12474,13 +12357,13 @@
         <v>82</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>82</v>
+        <v>516</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>82</v>
+        <v>517</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12498,7 +12381,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>252</v>
+        <v>511</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12519,10 +12402,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>253</v>
+        <v>518</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>254</v>
+        <v>519</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12533,10 +12416,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>358</v>
+        <v>520</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>256</v>
+        <v>520</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12544,7 +12427,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>92</v>
@@ -12556,29 +12439,27 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>115</v>
+        <v>521</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>257</v>
+        <v>522</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>258</v>
+        <v>523</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12620,7 +12501,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>262</v>
+        <v>520</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12632,33 +12513,33 @@
         <v>104</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>82</v>
+        <v>525</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>263</v>
+        <v>526</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>264</v>
+        <v>527</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>82</v>
+        <v>528</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>360</v>
+        <v>529</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>266</v>
+        <v>529</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12678,23 +12559,21 @@
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>215</v>
+        <v>530</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>267</v>
+        <v>531</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>268</v>
+        <v>532</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12742,7 +12621,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>270</v>
+        <v>529</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12754,33 +12633,33 @@
         <v>104</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>271</v>
+        <v>535</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>272</v>
+        <v>536</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>361</v>
+        <v>538</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>274</v>
+        <v>538</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12791,7 +12670,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
@@ -12800,22 +12679,22 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>275</v>
+        <v>539</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>276</v>
+        <v>540</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>277</v>
+        <v>541</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>278</v>
+        <v>542</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>279</v>
+        <v>543</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12864,19 +12743,19 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>280</v>
+        <v>538</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>105</v>
+        <v>544</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12885,10 +12764,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>281</v>
+        <v>545</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>282</v>
+        <v>546</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12899,10 +12778,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>362</v>
+        <v>547</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>284</v>
+        <v>547</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12922,23 +12801,19 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12986,7 +12861,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12995,10 +12870,10 @@
         <v>92</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -13007,10 +12882,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -13021,46 +12896,44 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>363</v>
+        <v>548</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>363</v>
+        <v>548</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>364</v>
+        <v>139</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>365</v>
+        <v>141</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>366</v>
+        <v>221</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
@@ -13084,101 +12957,105 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>363</v>
+        <v>222</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>375</v>
+        <v>106</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>378</v>
+        <v>549</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>378</v>
+        <v>549</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>216</v>
+        <v>551</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -13226,19 +13103,19 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>218</v>
+        <v>553</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -13250,7 +13127,7 @@
         <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13261,21 +13138,21 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>379</v>
+        <v>554</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>379</v>
+        <v>554</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -13287,16 +13164,16 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>140</v>
+        <v>555</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>141</v>
+        <v>556</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>221</v>
+        <v>557</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>143</v>
+        <v>558</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13334,31 +13211,31 @@
         <v>82</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>222</v>
+        <v>554</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>104</v>
+        <v>559</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>148</v>
+        <v>560</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
@@ -13367,10 +13244,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>82</v>
+        <v>561</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>106</v>
+        <v>562</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13381,10 +13258,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>380</v>
+        <v>563</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>380</v>
+        <v>563</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13392,35 +13269,33 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>225</v>
+        <v>555</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>226</v>
+        <v>564</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>227</v>
+        <v>565</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13468,19 +13343,19 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>230</v>
+        <v>563</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>104</v>
+        <v>559</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>105</v>
+        <v>560</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
@@ -13489,10 +13364,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>231</v>
+        <v>561</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>232</v>
+        <v>566</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13503,10 +13378,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>381</v>
+        <v>567</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>381</v>
+        <v>567</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13529,16 +13404,20 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>216</v>
+        <v>568</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13562,13 +13441,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>82</v>
+        <v>572</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>82</v>
+        <v>573</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13586,7 +13465,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>218</v>
+        <v>567</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13595,22 +13474,22 @@
         <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>82</v>
+        <v>574</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>113</v>
+        <v>491</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13621,14 +13500,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>382</v>
+        <v>576</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>382</v>
+        <v>576</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13647,18 +13526,20 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>141</v>
+        <v>577</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>221</v>
+        <v>578</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13682,31 +13563,31 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>82</v>
+        <v>581</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>222</v>
+        <v>576</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13718,19 +13599,19 @@
         <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>82</v>
+        <v>574</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>106</v>
+        <v>491</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13741,10 +13622,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>383</v>
+        <v>583</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>383</v>
+        <v>583</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13752,7 +13633,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>92</v>
@@ -13764,29 +13645,29 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>108</v>
+        <v>584</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>239</v>
+        <v>585</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>240</v>
+        <v>586</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>241</v>
+        <v>587</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>242</v>
+        <v>588</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>82</v>
@@ -13828,7 +13709,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>244</v>
+        <v>583</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13840,7 +13721,7 @@
         <v>104</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>105</v>
+        <v>589</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
@@ -13849,10 +13730,10 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>245</v>
+        <v>590</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>246</v>
+        <v>591</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
@@ -13863,10 +13744,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>385</v>
+        <v>592</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>385</v>
+        <v>592</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13886,19 +13767,19 @@
         <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>249</v>
+        <v>593</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>250</v>
+        <v>594</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13948,7 +13829,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>252</v>
+        <v>592</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13969,10 +13850,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>253</v>
+        <v>561</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>254</v>
+        <v>595</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13983,10 +13864,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>386</v>
+        <v>596</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>386</v>
+        <v>596</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13994,10 +13875,10 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -14009,26 +13890,24 @@
         <v>93</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>115</v>
+        <v>597</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>257</v>
+        <v>598</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>258</v>
+        <v>599</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>82</v>
@@ -14070,19 +13949,19 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>262</v>
+        <v>596</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
@@ -14091,10 +13970,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>263</v>
+        <v>601</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>264</v>
+        <v>602</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -14105,10 +13984,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>388</v>
+        <v>603</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>388</v>
+        <v>603</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14119,7 +13998,7 @@
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -14131,20 +14010,18 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>215</v>
+        <v>604</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>267</v>
+        <v>605</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>268</v>
+        <v>606</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14192,19 +14069,19 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>270</v>
+        <v>603</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -14213,10 +14090,10 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>271</v>
+        <v>601</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>272</v>
+        <v>608</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14227,10 +14104,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>389</v>
+        <v>609</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>389</v>
+        <v>609</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14241,7 +14118,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -14253,19 +14130,19 @@
         <v>93</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>275</v>
+        <v>539</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>276</v>
+        <v>610</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>277</v>
+        <v>611</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>278</v>
+        <v>612</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>279</v>
+        <v>613</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14314,13 +14191,13 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>280</v>
+        <v>609</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>104</v>
@@ -14335,10 +14212,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>281</v>
+        <v>614</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>282</v>
+        <v>615</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14349,10 +14226,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>390</v>
+        <v>616</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>390</v>
+        <v>616</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14360,35 +14237,31 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14397,7 +14270,7 @@
         <v>82</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>82</v>
@@ -14436,7 +14309,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14445,10 +14318,10 @@
         <v>92</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
@@ -14457,10 +14330,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14471,21 +14344,21 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>392</v>
+        <v>617</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>392</v>
+        <v>617</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>82</v>
@@ -14494,23 +14367,21 @@
         <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>393</v>
+        <v>140</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>394</v>
+        <v>141</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>395</v>
+        <v>221</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
@@ -14546,46 +14417,46 @@
         <v>82</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>392</v>
+        <v>222</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>399</v>
+        <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>400</v>
+        <v>106</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>82</v>
@@ -14593,14 +14464,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>402</v>
+        <v>618</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>402</v>
+        <v>618</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14613,24 +14484,26 @@
         <v>82</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>403</v>
+        <v>140</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>404</v>
+        <v>551</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>405</v>
+        <v>552</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14678,7 +14551,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>402</v>
+        <v>553</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14690,7 +14563,7 @@
         <v>104</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>82</v>
@@ -14699,13 +14572,13 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>407</v>
+        <v>106</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -14713,18 +14586,18 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>408</v>
+        <v>619</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>408</v>
+        <v>619</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>409</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>92</v>
@@ -14739,19 +14612,19 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>410</v>
+        <v>198</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>411</v>
+        <v>620</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>412</v>
+        <v>621</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>413</v>
+        <v>622</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14776,13 +14649,13 @@
         <v>82</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -14800,10 +14673,10 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>408</v>
+        <v>619</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>92</v>
@@ -14812,22 +14685,22 @@
         <v>104</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>82</v>
+        <v>623</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>416</v>
+        <v>331</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>417</v>
+        <v>332</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>418</v>
+        <v>333</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -14835,14 +14708,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>419</v>
+        <v>624</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>419</v>
+        <v>624</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14861,19 +14734,19 @@
         <v>93</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>422</v>
+        <v>625</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>424</v>
+        <v>626</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14922,7 +14795,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>419</v>
+        <v>624</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14937,30 +14810,30 @@
         <v>105</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>82</v>
+        <v>627</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="AP103" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>430</v>
+        <v>628</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>430</v>
+        <v>628</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14980,21 +14853,23 @@
         <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>431</v>
+        <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>432</v>
+        <v>629</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>433</v>
+        <v>630</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O104" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -15018,13 +14893,13 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -15042,7 +14917,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>430</v>
+        <v>628</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15051,7 +14926,7 @@
         <v>92</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>104</v>
+        <v>479</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>105</v>
@@ -15063,13 +14938,13 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>435</v>
+        <v>106</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15077,14 +14952,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>438</v>
+        <v>632</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>438</v>
+        <v>632</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15100,22 +14975,22 @@
         <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>439</v>
+        <v>198</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>168</v>
+        <v>485</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15140,13 +15015,13 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -15164,7 +15039,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>438</v>
+        <v>632</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15176,33 +15051,33 @@
         <v>104</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>443</v>
+        <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>447</v>
+        <v>633</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>447</v>
+        <v>633</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15213,7 +15088,7 @@
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -15222,22 +15097,22 @@
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>448</v>
+        <v>83</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>449</v>
+        <v>634</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>450</v>
+        <v>635</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>451</v>
+        <v>542</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>452</v>
+        <v>543</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15274,4413 +15149,53 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AC106" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>447</v>
+        <v>633</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>456</v>
+        <v>545</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>457</v>
+        <v>546</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="D107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP107" t="s" s="2">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP108" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="P110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP110" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q111" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="P112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP112" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="P113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="P114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP114" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="P115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP115" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="P116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="P117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O118" s="2"/>
-      <c r="P118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP118" t="s" s="2">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP119" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O120" s="2"/>
-      <c r="P120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="O121" s="2"/>
-      <c r="P121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP121" t="s" s="2">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="P122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP122" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP123" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O124" s="2"/>
-      <c r="P124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP124" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP125" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="O126" s="2"/>
-      <c r="P126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP126" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="O127" s="2"/>
-      <c r="P127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP127" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="P128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP128" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="P129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP129" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="P130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP130" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O131" s="2"/>
-      <c r="P131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP131" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="O132" s="2"/>
-      <c r="P132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP132" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O133" s="2"/>
-      <c r="P133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q133" s="2"/>
-      <c r="R133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AO133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP133" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="P134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP134" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-      <c r="P135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP135" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O136" s="2"/>
-      <c r="P136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP136" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="137" hidden="true">
-      <c r="A137" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q137" s="2"/>
-      <c r="R137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AO137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP137" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="138" hidden="true">
-      <c r="A138" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="P138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q138" s="2"/>
-      <c r="R138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AO138" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AP138" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q139" s="2"/>
-      <c r="R139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AO139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP139" t="s" s="2">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="140" hidden="true">
-      <c r="A140" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="P140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q140" s="2"/>
-      <c r="R140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AO140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP140" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="141" hidden="true">
-      <c r="A141" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q141" s="2"/>
-      <c r="R141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AO141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP141" t="s" s="2">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="142" hidden="true">
-      <c r="A142" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="F142" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="P142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q142" s="2"/>
-      <c r="R142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AO142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP142" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP142">
+  <autoFilter ref="A1:AP106">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19690,7 +15205,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI141">
+  <conditionalFormatting sqref="A2:AI105">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1070,7 +1070,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1070,7 +1070,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
+++ b/output/StructureDefinition-cde-calcium-in-serum-or-plasma-mole-concentration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
